--- a/cards_python_react/excel/variant.xlsx
+++ b/cards_python_react/excel/variant.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\PROGRAMACAO\Python\Cards-Python-React\cards_python_react\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14C2B690-16A0-4FB3-8E10-23788474A448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58558630-3FFB-4183-8B4B-5C48AD269B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="4470" windowWidth="20640" windowHeight="11160" xr2:uid="{C5FBD577-8207-4766-B626-7CB2D48878B2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C5FBD577-8207-4766-B626-7CB2D48878B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Variant" sheetId="1" r:id="rId1"/>
@@ -37,16 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="103">
-  <si>
-    <t>SGX2-ENA08</t>
-  </si>
-  <si>
-    <t>SGX2-ENA16</t>
-  </si>
-  <si>
-    <t>SGX2-ENA21</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="106">
   <si>
     <t>name</t>
   </si>
@@ -87,6 +78,12 @@
     <t>Name</t>
   </si>
   <si>
+    <t>Common</t>
+  </si>
+  <si>
+    <t>(C)</t>
+  </si>
+  <si>
     <t>Rarity</t>
   </si>
   <si>
@@ -99,260 +96,272 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>SGX2-ENA01</t>
-  </si>
-  <si>
-    <t>"Elemental HERO Avian"</t>
-  </si>
-  <si>
-    <t>Common</t>
+    <t>Effect Monster</t>
+  </si>
+  <si>
+    <t>Speed Duel debut</t>
+  </si>
+  <si>
+    <t>Normal Spell</t>
+  </si>
+  <si>
+    <t>Reprint</t>
+  </si>
+  <si>
+    <t>Effect Fusion Monster</t>
+  </si>
+  <si>
+    <t>Normal Trap</t>
   </si>
   <si>
     <t>Normal Monster</t>
   </si>
   <si>
-    <t>Reprint</t>
-  </si>
-  <si>
-    <t>SGX2-ENA02</t>
-  </si>
-  <si>
-    <t>"Elemental HERO Burstinatrix"</t>
-  </si>
-  <si>
-    <t>SGX2-ENA03</t>
-  </si>
-  <si>
-    <t>"Elemental HERO Clayman"</t>
-  </si>
-  <si>
-    <t>SGX2-ENA04</t>
-  </si>
-  <si>
-    <t>"Elemental HERO Sparkman"</t>
-  </si>
-  <si>
-    <t>SGX2-ENA05</t>
-  </si>
-  <si>
-    <t>"Goddess with the Third Eye"</t>
-  </si>
-  <si>
-    <t>Effect Monster</t>
-  </si>
-  <si>
-    <t>SGX2-ENA06</t>
-  </si>
-  <si>
-    <t>"Winged Kuriboh"</t>
-  </si>
-  <si>
-    <t>SGX2-ENA07</t>
-  </si>
-  <si>
-    <t>"Dark Catapulter"</t>
-  </si>
-  <si>
-    <t>Speed Duel debut</t>
-  </si>
-  <si>
-    <t>"Elemental HERO Bubbleman"</t>
-  </si>
-  <si>
-    <t>SGX2-ENA09</t>
-  </si>
-  <si>
-    <t>"Elemental HERO Bladedge"</t>
-  </si>
-  <si>
-    <t>SGX2-ENAIO</t>
-  </si>
-  <si>
-    <t>"Elemental HERO Wildheart"</t>
-  </si>
-  <si>
-    <t>SGX2-ENA11</t>
-  </si>
-  <si>
-    <t>"Elemental HERO Blazeman"</t>
-  </si>
-  <si>
-    <t>SGX2-ENA12</t>
-  </si>
-  <si>
-    <t>"Polymerization"</t>
-  </si>
-  <si>
-    <t>Normal Spell</t>
-  </si>
-  <si>
-    <t>SGX2-ENA13</t>
-  </si>
-  <si>
-    <t>"H - Heated Heart"</t>
-  </si>
-  <si>
-    <t>SGX2-ENA14</t>
-  </si>
-  <si>
-    <t>"R - Righteous Justice"</t>
-  </si>
-  <si>
-    <t>SGX2-ENA15</t>
-  </si>
-  <si>
-    <t>"Skyscraper 2 - Hero City"'</t>
-  </si>
-  <si>
     <t>Field spell</t>
   </si>
   <si>
-    <t>"A Hero Lives"</t>
-  </si>
-  <si>
-    <t>SGX2-ENA17</t>
-  </si>
-  <si>
-    <t>"Sabatlel - The Philosopher's Stone"</t>
-  </si>
-  <si>
-    <t>SGX2-ENA18</t>
-  </si>
-  <si>
-    <t>"Hero Signal"</t>
-  </si>
-  <si>
-    <t>Normal Trap</t>
-  </si>
-  <si>
-    <t>SGX2-ENA19</t>
-  </si>
-  <si>
-    <t>"Hero Ring"</t>
-  </si>
-  <si>
-    <t>SGX2-ENA20</t>
-  </si>
-  <si>
-    <t>"Hero Counterattack"</t>
-  </si>
-  <si>
-    <t>"Elemental HERO Tempest"</t>
-  </si>
-  <si>
-    <t>Effect Fusion Monster</t>
-  </si>
-  <si>
-    <t>SGX2-ENA22</t>
-  </si>
-  <si>
-    <t>"Elemental HERO Electrum"</t>
-  </si>
-  <si>
-    <t>SGX2-ENA23</t>
-  </si>
-  <si>
-    <t>"Elemental HERO Wild Wingman"</t>
-  </si>
-  <si>
-    <t>SGX2-ENA24</t>
-  </si>
-  <si>
-    <t>"Elemental HERO Mariner"</t>
-  </si>
-  <si>
-    <t>SGX2-ENA25</t>
-  </si>
-  <si>
-    <t>"Elemental HERO Nova Master"</t>
-  </si>
-  <si>
-    <t>(C)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Elemental HERO Avian </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Elemental HERO Burstinatrix </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Elemental HERO Clayman </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Elemental HERO Sparkman </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Goddess with the Third Eye </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Winged Kuriboh </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dark Catapulter </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Elemental HERO Bubbleman </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Elemental HERO Bladedge </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Elemental HERO Wildheart </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Elemental HERO Blazeman </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Polymerization </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> H - Heated Heart </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R - Righteous Justice </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> A Hero Lives </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hero Signal </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hero Ring </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hero Counterattack </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Elemental HERO Tempest </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Elemental HERO Electrum </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Elemental HERO Wild Wingman </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Elemental HERO Mariner </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Elemental HERO Nova Master </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Skyscraper 2 - Hero City</t>
-  </si>
-  <si>
-    <t>Sabatiel - The Philosopher's Stone</t>
-  </si>
-  <si>
-    <t>SGX2-ENA10</t>
+    <t>Equip Spell</t>
+  </si>
+  <si>
+    <t>Continuous Spell</t>
+  </si>
+  <si>
+    <t>SGXI-ENIOI</t>
+  </si>
+  <si>
+    <t>"Hourglass of Life"</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>SGX1-EN102</t>
+  </si>
+  <si>
+    <t>"Big Koala"</t>
+  </si>
+  <si>
+    <t>SGX1-EN103</t>
+  </si>
+  <si>
+    <t>"Mokey Mokey"</t>
+  </si>
+  <si>
+    <t>SGX1-EN104</t>
+  </si>
+  <si>
+    <t>"Don Zaloog"</t>
+  </si>
+  <si>
+    <t>SGX1-EN105</t>
+  </si>
+  <si>
+    <t>"Apprentice Magician"</t>
+  </si>
+  <si>
+    <t>SGX1-EN106</t>
+  </si>
+  <si>
+    <t>"Des Kangaroo"</t>
+  </si>
+  <si>
+    <t>SGX1-EN107</t>
+  </si>
+  <si>
+    <t>"Gyroid"</t>
+  </si>
+  <si>
+    <t>SGX1-EN108</t>
+  </si>
+  <si>
+    <t>"Hydrogeddon"</t>
+  </si>
+  <si>
+    <t>SGX1-EN109</t>
+  </si>
+  <si>
+    <t>"Rainbow Dark Dragon"</t>
+  </si>
+  <si>
+    <t>SGXI-ENIIO</t>
+  </si>
+  <si>
+    <t>"31ack Brachios"</t>
+  </si>
+  <si>
+    <t>Ettect Monster</t>
+  </si>
+  <si>
+    <t>SGXI-ENIII</t>
+  </si>
+  <si>
+    <t>"Toon Ancient Gear Golem"</t>
+  </si>
+  <si>
+    <t>Toon monster</t>
+  </si>
+  <si>
+    <t>SGX1-EN112</t>
+  </si>
+  <si>
+    <t>"Sphere Kunboh"</t>
+  </si>
+  <si>
+    <t>SGX1-EN113</t>
+  </si>
+  <si>
+    <t>"Master of Oz"</t>
+  </si>
+  <si>
+    <t>Fusion Monster</t>
+  </si>
+  <si>
+    <t>SGX1-EN114</t>
+  </si>
+  <si>
+    <t>"VWXYZ-Dragon Catapult Cannon"</t>
+  </si>
+  <si>
+    <t>SGX1-EN115</t>
+  </si>
+  <si>
+    <t>"Book ot Moon"</t>
+  </si>
+  <si>
+    <t>Quick-play Spell</t>
+  </si>
+  <si>
+    <t>SGX1-EN116</t>
+  </si>
+  <si>
+    <t>"Fusion Weapon"</t>
+  </si>
+  <si>
+    <t>SGX1-EN117</t>
+  </si>
+  <si>
+    <t>"Mokey Mokey Smackdown"</t>
+  </si>
+  <si>
+    <t>SGX1-EN118</t>
+  </si>
+  <si>
+    <t>"Crystal Beacon"</t>
+  </si>
+  <si>
+    <t>SGX1-EN119</t>
+  </si>
+  <si>
+    <t>"0]ama Country"</t>
+  </si>
+  <si>
+    <t>SGX1-EN120</t>
+  </si>
+  <si>
+    <t>"Advanced Dark"</t>
+  </si>
+  <si>
+    <t>SGX1-EN121</t>
+  </si>
+  <si>
+    <t>"Rising Energy"</t>
+  </si>
+  <si>
+    <t>SGX1-EN122</t>
+  </si>
+  <si>
+    <t>"Justi-Break'</t>
+  </si>
+  <si>
+    <t>SGX1-EN123</t>
+  </si>
+  <si>
+    <t>"Floodgate Trap Hole"</t>
+  </si>
+  <si>
+    <t>SGXI-ENI01</t>
+  </si>
+  <si>
+    <t>SGXI-EN110</t>
+  </si>
+  <si>
+    <t>SGXI-EN111</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hourglass of Life </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Big Koala </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mokey Mokey </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Don Zaloog </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Apprentice Magician </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Des Kangaroo </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gyroid </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hydrogeddon </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rainbow Dark Dragon </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Toon Ancient Gear Golem </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Master of Oz </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VWXYZ-Dragon Catapult Cannon </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fusion Weapon </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mokey Mokey Smackdown </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Crystal Beacon </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Advanced Dark </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rising Energy </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Floodgate Trap Hole </t>
+  </si>
+  <si>
+    <t>Black Brachios</t>
+  </si>
+  <si>
+    <t>Ojama Country</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Justi-Break</t>
+  </si>
+  <si>
+    <t>Sphere Kuriboh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Book of Moon </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -361,9 +370,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="12"/>
+      <color rgb="FF3A3A3A"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -389,13 +402,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -702,7 +720,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -710,16 +728,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC009433-BF9D-492C-8729-DF3F5DF29846}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="35.7109375" customWidth="1"/>
+    <col min="3" max="3" width="41.5703125" customWidth="1"/>
     <col min="4" max="4" width="22.140625" customWidth="1"/>
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" customWidth="1"/>
@@ -730,684 +748,654 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
       <c r="I1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>76</v>
+        <v>13</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>76</v>
+        <v>13</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>76</v>
+        <v>13</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>76</v>
+        <v>13</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
       <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" t="s">
         <v>81</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="C11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" t="s">
         <v>82</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>44</v>
-      </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>76</v>
+        <v>13</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G13" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>76</v>
+        <v>13</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G14" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>76</v>
+        <v>13</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G15" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>76</v>
+        <v>13</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H16" t="s">
-        <v>22</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>76</v>
+        <v>13</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G17" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H17" t="s">
-        <v>22</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>76</v>
+        <v>13</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>101</v>
+        <v>66</v>
+      </c>
+      <c r="C18" t="s">
+        <v>96</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H18" t="s">
-        <v>22</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>76</v>
+        <v>13</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G19" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H19" t="s">
-        <v>22</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>76</v>
+        <v>13</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C20" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G20" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H20" t="s">
-        <v>22</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>76</v>
+        <v>13</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C21" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D21" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G21" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H21" t="s">
-        <v>22</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>76</v>
+        <v>13</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="C22" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G22" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H22" t="s">
-        <v>22</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>76</v>
+        <v>13</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C23" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G23" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H23" t="s">
-        <v>22</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>76</v>
+        <v>13</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C24" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G24" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H24" t="s">
-        <v>22</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>76</v>
+        <v>13</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" t="s">
-        <v>98</v>
-      </c>
-      <c r="D25" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H25" t="s">
-        <v>22</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>76</v>
-      </c>
+      <c r="I25" s="1"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>74</v>
-      </c>
-      <c r="C26" t="s">
-        <v>99</v>
-      </c>
-      <c r="D26" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
-      <c r="H26" t="s">
-        <v>22</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>76</v>
-      </c>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C27" s="4"/>
+      <c r="I27" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1415,16 +1403,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C4948B8-6542-49FB-AA1A-4F97B297EE38}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E26"/>
+      <selection activeCell="B2" sqref="B2:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
@@ -1432,454 +1420,428 @@
     <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>18</v>
-      </c>
-      <c r="I1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
         <v>25</v>
       </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
         <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
         <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="G12" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" t="s">
         <v>22</v>
-      </c>
-      <c r="E13" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="G14" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="G15" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" t="s">
         <v>22</v>
-      </c>
-      <c r="E16" t="s">
-        <v>55</v>
-      </c>
-      <c r="G16" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="G17" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E18" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="G18" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E19" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="G19" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E20" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="G20" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D21" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E21" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="G21" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="G22" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E23" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="G23" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" t="s">
         <v>22</v>
       </c>
-      <c r="E24" t="s">
-        <v>67</v>
-      </c>
-      <c r="G24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>72</v>
-      </c>
-      <c r="B25" t="s">
-        <v>73</v>
-      </c>
-      <c r="D25" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" t="s">
-        <v>67</v>
-      </c>
-      <c r="G25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>74</v>
-      </c>
-      <c r="B26" t="s">
-        <v>75</v>
-      </c>
-      <c r="D26" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" t="s">
-        <v>67</v>
-      </c>
-      <c r="G26" t="s">
-        <v>38</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>